--- a/기획/마이트앤매직/Hores of might & magic V 전투 데미지 시뮬레이터.xlsx
+++ b/기획/마이트앤매직/Hores of might & magic V 전투 데미지 시뮬레이터.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\unityenginebasic_9th\기획\마이트앤매직\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0642D701-D3D0-4520-88FB-950C1558444A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832BE640-FBC3-4B20-BFA3-DCA814515EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="데미지 계산기" sheetId="3" r:id="rId1"/>
-    <sheet name="유닛 능력치 테이블" sheetId="2" r:id="rId2"/>
-    <sheet name="영웅 능력치 테이블" sheetId="4" r:id="rId3"/>
+    <sheet name="전투 데미지 시스템 역기획서" sheetId="5" r:id="rId1"/>
+    <sheet name="데미지 계산기" sheetId="3" r:id="rId2"/>
+    <sheet name="유닛 능력치 테이블" sheetId="2" r:id="rId3"/>
+    <sheet name="영웅 능력치 테이블" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="368">
   <si>
     <t>타운</t>
   </si>
@@ -1089,18 +1090,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OFF</t>
-  </si>
-  <si>
     <t>변경 가능한 항목 강조하기</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개요</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 Heros Of Might &amp; Magic V(HOMM5)의 전투 데미지 시스템의 구조를 파악하기 위해 작성되었다.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOMM5의 전투 데미지는 크게 영웅의 공격과 유닛의 공격 2가지로 분류할 수 있다.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOMM5에 영웅은 전투에서 피해를 받지 않지만 마법과 직접 공격으로 상대 유닛에게 피해를 줄 수 있다.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>(영웅 피해량 배율 × 적 유닛의 최대 체력 = 데미지)</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅 직접공격 데미지 공식</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅 피해량 배율</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅의 레벨과 적 유닛에 레벨에 따라서 정해진다.  '영웅 능력치 테이블' 시트 참조</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>영웅
+데미지</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반적으로 영웅의 공격은 고정 데미지를 가지며 저티어의 유닛보다 고티어의 유닛을 공격할 때 효율이 좋다.
+보통 고티어에 숫자가 적은 유닛을 공격하여 숫자를 줄이거나 다른 공격으로 적은 숫자가 남은 유닛을 
+확정적으로 마무리 하기 위해서 사용된다.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛
+데미지</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닛 공격
+데미지 공식</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>(유닛의 데미지 능력치)×(유닛의 숫자)×(1＋0.05×공격하는 유닛의 공격력－공격을 받는 유닛의 방어력)</t>
+  </si>
+  <si>
+    <t>(유닛의 데미지 능력치)×(유닛의 숫자)×(1－0.05×공격을 받는 유닛의 방어력－공격하는 유닛의 공격력)</t>
+  </si>
+  <si>
+    <t>공격력 &gt;= 방어력</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력 &lt;  방어력</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격하는 유닛의 공격력과 공격 받는 유닛의 방어력을 비교하여 공식이 바뀐다.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>반격</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>행운</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 능력</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격을 받은 유닛이 자신을 공격한 유닛을 공격을 하는 것으로
+유닛의 능력에 따라서 반격이 없을 수도 있고 반격에 반격이 발생하는 경우도 있다.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격시 행운 능력치에 따라서 발동하는 것으로 '높은 행운'과 '불운'이 있다.
+'높은 행운'이 발생할 경우 본래의 데미지가 일시적으로 2배(기술-엘프의 행운 습득시 2.25배)가 되며,
+'불운'이 발생할 경우 데미지가 일시적으로 절반이 된다.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격시 일정 확률로 발동되는 부과 효과다.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOMM5에 주된 공격 방법으로 공격 시 유닛의 능력치(공격력, 방어력, 데미지 - '유닛 능력치 테이블'시트 참조)와
+유닛의 숫자에 따라 변하며 유닛의 데미지 능력치는 일부 유닛을 제외한 대부분은 최솟 값과 최댓 값이 다르기 
+때문에 데미지의 편차가 있다. 또한 유닛이 공격할 경우 반격과 행운 특수 능력이라는 변수가 존재한다.</t>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1205,6 +1315,21 @@
     <font>
       <sz val="36"/>
       <color theme="0" tint="-0.14999847407452621"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -2313,7 +2438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2540,6 +2665,180 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2635,177 +2934,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2824,8 +2952,20 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3267,11 +3407,419 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA1867F-281F-439A-8D5E-17B9E9836017}">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="163" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="163" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="163"/>
+      <c r="D1" s="163"/>
+      <c r="E1" s="163"/>
+      <c r="F1" s="163"/>
+      <c r="G1" s="163"/>
+      <c r="H1" s="163"/>
+      <c r="I1" s="163"/>
+      <c r="J1" s="163"/>
+      <c r="K1" s="163"/>
+      <c r="L1" s="163"/>
+      <c r="M1" s="163"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="163"/>
+      <c r="B2" s="163" t="s">
+        <v>346</v>
+      </c>
+      <c r="C2" s="163"/>
+      <c r="D2" s="163"/>
+      <c r="E2" s="163"/>
+      <c r="F2" s="163"/>
+      <c r="G2" s="163"/>
+      <c r="H2" s="163"/>
+      <c r="I2" s="163"/>
+      <c r="J2" s="163"/>
+      <c r="K2" s="163"/>
+      <c r="L2" s="163"/>
+      <c r="M2" s="163"/>
+    </row>
+    <row r="4" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="165" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" s="165" t="s">
+        <v>360</v>
+      </c>
+      <c r="C4" s="165"/>
+      <c r="D4" s="165"/>
+      <c r="E4" s="165"/>
+      <c r="F4" s="165"/>
+      <c r="G4" s="165"/>
+      <c r="H4" s="165"/>
+      <c r="I4" s="165"/>
+      <c r="J4" s="165"/>
+      <c r="K4" s="165"/>
+      <c r="L4" s="165"/>
+      <c r="M4" s="165"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="165"/>
+      <c r="B5" s="165" t="s">
+        <v>355</v>
+      </c>
+      <c r="C5" s="165"/>
+      <c r="D5" s="163" t="s">
+        <v>358</v>
+      </c>
+      <c r="E5" s="163"/>
+      <c r="F5" s="166" t="s">
+        <v>356</v>
+      </c>
+      <c r="G5" s="166"/>
+      <c r="H5" s="166"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="166"/>
+      <c r="K5" s="166"/>
+      <c r="L5" s="166"/>
+      <c r="M5" s="166"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="165"/>
+      <c r="B6" s="165"/>
+      <c r="C6" s="165"/>
+      <c r="D6" s="163" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="163"/>
+      <c r="F6" s="166" t="s">
+        <v>357</v>
+      </c>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+    </row>
+    <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="165"/>
+      <c r="B7" s="165" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165"/>
+      <c r="E7" s="165"/>
+      <c r="F7" s="165"/>
+      <c r="G7" s="165"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="165"/>
+      <c r="J7" s="165"/>
+      <c r="K7" s="165"/>
+      <c r="L7" s="165"/>
+      <c r="M7" s="165"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="165"/>
+      <c r="B8" s="165"/>
+      <c r="C8" s="165"/>
+      <c r="D8" s="165"/>
+      <c r="E8" s="165"/>
+      <c r="F8" s="165"/>
+      <c r="G8" s="165"/>
+      <c r="H8" s="165"/>
+      <c r="I8" s="165"/>
+      <c r="J8" s="165"/>
+      <c r="K8" s="165"/>
+      <c r="L8" s="165"/>
+      <c r="M8" s="165"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="165"/>
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
+      <c r="L9" s="165"/>
+      <c r="M9" s="165"/>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="165"/>
+      <c r="B10" s="163" t="s">
+        <v>361</v>
+      </c>
+      <c r="C10" s="163"/>
+      <c r="D10" s="165" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
+      <c r="I10" s="165"/>
+      <c r="J10" s="165"/>
+      <c r="K10" s="165"/>
+      <c r="L10" s="165"/>
+      <c r="M10" s="165"/>
+    </row>
+    <row r="11" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="165"/>
+      <c r="B11" s="163"/>
+      <c r="C11" s="163"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="F11" s="165"/>
+      <c r="G11" s="165"/>
+      <c r="H11" s="165"/>
+      <c r="I11" s="165"/>
+      <c r="J11" s="165"/>
+      <c r="K11" s="165"/>
+      <c r="L11" s="165"/>
+      <c r="M11" s="165"/>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="165"/>
+      <c r="B12" s="163" t="s">
+        <v>362</v>
+      </c>
+      <c r="C12" s="163"/>
+      <c r="D12" s="165" t="s">
+        <v>365</v>
+      </c>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
+      <c r="L12" s="165"/>
+      <c r="M12" s="165"/>
+    </row>
+    <row r="13" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="165"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
+      <c r="L13" s="165"/>
+      <c r="M13" s="165"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="165"/>
+      <c r="B14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
+      <c r="L14" s="165"/>
+      <c r="M14" s="165"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="165"/>
+      <c r="B15" s="163" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="163"/>
+      <c r="D15" s="163" t="s">
+        <v>366</v>
+      </c>
+      <c r="E15" s="163"/>
+      <c r="F15" s="163"/>
+      <c r="G15" s="163"/>
+      <c r="H15" s="163"/>
+      <c r="I15" s="163"/>
+      <c r="J15" s="163"/>
+      <c r="K15" s="163"/>
+      <c r="L15" s="163"/>
+      <c r="M15" s="163"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D16" s="164"/>
+      <c r="E16" s="164"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="164"/>
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="165" t="s">
+        <v>352</v>
+      </c>
+      <c r="B17" s="163" t="s">
+        <v>347</v>
+      </c>
+      <c r="C17" s="163"/>
+      <c r="D17" s="163"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="163"/>
+      <c r="H17" s="163"/>
+      <c r="I17" s="163"/>
+      <c r="J17" s="163"/>
+      <c r="K17" s="163"/>
+      <c r="L17" s="163"/>
+      <c r="M17" s="163"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="165"/>
+      <c r="B18" s="163" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="163"/>
+      <c r="D18" s="163"/>
+      <c r="E18" s="163" t="s">
+        <v>348</v>
+      </c>
+      <c r="F18" s="163"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="163"/>
+      <c r="I18" s="163"/>
+      <c r="J18" s="163"/>
+      <c r="K18" s="163"/>
+      <c r="L18" s="163"/>
+      <c r="M18" s="163"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="165"/>
+      <c r="B19" s="163" t="s">
+        <v>350</v>
+      </c>
+      <c r="C19" s="163"/>
+      <c r="D19" s="163"/>
+      <c r="E19" s="163" t="s">
+        <v>351</v>
+      </c>
+      <c r="F19" s="163"/>
+      <c r="G19" s="163"/>
+      <c r="H19" s="163"/>
+      <c r="I19" s="163"/>
+      <c r="J19" s="163"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
+      <c r="M19" s="163"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="165"/>
+      <c r="B20" s="165" t="s">
+        <v>353</v>
+      </c>
+      <c r="C20" s="165"/>
+      <c r="D20" s="165"/>
+      <c r="E20" s="165"/>
+      <c r="F20" s="165"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="165"/>
+      <c r="J20" s="165"/>
+      <c r="K20" s="165"/>
+      <c r="L20" s="165"/>
+      <c r="M20" s="165"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="165"/>
+      <c r="B21" s="165"/>
+      <c r="C21" s="165"/>
+      <c r="D21" s="165"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="165"/>
+      <c r="K21" s="165"/>
+      <c r="L21" s="165"/>
+      <c r="M21" s="165"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="165"/>
+      <c r="B22" s="165"/>
+      <c r="C22" s="165"/>
+      <c r="D22" s="165"/>
+      <c r="E22" s="165"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="165"/>
+      <c r="K22" s="165"/>
+      <c r="L22" s="165"/>
+      <c r="M22" s="165"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="162"/>
+    </row>
+    <row r="32" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="B12:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:M18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="B20:M22"/>
+    <mergeCell ref="D15:M15"/>
+    <mergeCell ref="D10:M11"/>
+    <mergeCell ref="D12:M14"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="B7:M9"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F5:M5"/>
+    <mergeCell ref="F6:M6"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:C6"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3296,116 +3844,116 @@
   <sheetData>
     <row r="1" spans="2:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="126" t="s">
         <v>336</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="74" t="s">
+      <c r="C2" s="126"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="125" t="s">
         <v>337</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
       <c r="P2" s="33"/>
       <c r="Q2" s="33"/>
     </row>
     <row r="3" spans="2:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="146" t="s">
         <v>333</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97">
+      <c r="C4" s="147"/>
+      <c r="D4" s="148">
         <v>43</v>
       </c>
-      <c r="E4" s="98"/>
+      <c r="E4" s="149"/>
       <c r="F4" s="34"/>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="140" t="s">
         <v>324</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="91"/>
+      <c r="H4" s="141"/>
+      <c r="I4" s="141"/>
+      <c r="J4" s="142"/>
       <c r="K4" s="34"/>
-      <c r="L4" s="92" t="s">
+      <c r="L4" s="143" t="s">
         <v>325</v>
       </c>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="94"/>
+      <c r="M4" s="144"/>
+      <c r="N4" s="144"/>
+      <c r="O4" s="145"/>
     </row>
     <row r="5" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="150" t="s">
         <v>327</v>
       </c>
-      <c r="C5" s="100"/>
-      <c r="D5" s="101" t="str">
+      <c r="C5" s="151"/>
+      <c r="D5" s="152" t="str">
         <f>VLOOKUP('데미지 계산기'!D6,'영웅 능력치 테이블'!$M$6:$V$13,2,0)</f>
         <v>나이트</v>
       </c>
-      <c r="E5" s="102"/>
+      <c r="E5" s="153"/>
       <c r="F5" s="34"/>
       <c r="G5" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="H5" s="146" t="str">
+      <c r="H5" s="106" t="str">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,5,0)</f>
         <v>대천사</v>
       </c>
-      <c r="I5" s="147"/>
-      <c r="J5" s="148"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="108"/>
       <c r="K5" s="34"/>
       <c r="L5" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="123" t="str">
+      <c r="M5" s="90" t="str">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,5,0)</f>
         <v>아크리치</v>
       </c>
-      <c r="N5" s="123"/>
-      <c r="O5" s="124"/>
+      <c r="N5" s="90"/>
+      <c r="O5" s="91"/>
     </row>
     <row r="6" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="136" t="s">
         <v>334</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="137"/>
+      <c r="D6" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="88"/>
+      <c r="E6" s="139"/>
       <c r="F6" s="34"/>
       <c r="G6" s="58" t="s">
         <v>330</v>
       </c>
-      <c r="H6" s="149" t="s">
+      <c r="H6" s="109" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="150"/>
-      <c r="J6" s="151"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="111"/>
       <c r="K6" s="34"/>
       <c r="L6" s="61" t="s">
         <v>330</v>
       </c>
-      <c r="M6" s="125" t="s">
+      <c r="M6" s="92" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="126"/>
-      <c r="O6" s="127"/>
+      <c r="N6" s="93"/>
+      <c r="O6" s="94"/>
     </row>
     <row r="7" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="82" t="s">
         <v>322</v>
       </c>
-      <c r="C7" s="142"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="64" t="s">
         <v>323</v>
       </c>
@@ -3416,20 +3964,20 @@
       <c r="G7" s="59" t="s">
         <v>331</v>
       </c>
-      <c r="H7" s="152">
+      <c r="H7" s="87">
         <v>7</v>
       </c>
-      <c r="I7" s="153"/>
-      <c r="J7" s="154"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="89"/>
       <c r="K7" s="34"/>
       <c r="L7" s="62" t="s">
         <v>331</v>
       </c>
-      <c r="M7" s="128">
-        <v>5</v>
-      </c>
-      <c r="N7" s="129"/>
-      <c r="O7" s="130"/>
+      <c r="M7" s="95">
+        <v>5</v>
+      </c>
+      <c r="N7" s="96"/>
+      <c r="O7" s="97"/>
     </row>
     <row r="8" spans="2:17" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B8" s="65" t="s">
@@ -3451,21 +3999,21 @@
         <f>IF(H6="중립","3.유닛 타입","3.업그레이드")</f>
         <v>3.업그레이드</v>
       </c>
-      <c r="H8" s="152">
-        <v>1</v>
-      </c>
-      <c r="I8" s="153"/>
-      <c r="J8" s="154"/>
+      <c r="H8" s="87">
+        <v>1</v>
+      </c>
+      <c r="I8" s="88"/>
+      <c r="J8" s="89"/>
       <c r="K8" s="34"/>
       <c r="L8" s="62" t="str">
         <f>IF(M6="중립","3.유닛 타입","3.업그레이드")</f>
         <v>3.업그레이드</v>
       </c>
-      <c r="M8" s="131">
-        <v>1</v>
-      </c>
-      <c r="N8" s="132"/>
-      <c r="O8" s="133"/>
+      <c r="M8" s="98">
+        <v>1</v>
+      </c>
+      <c r="N8" s="99"/>
+      <c r="O8" s="100"/>
     </row>
     <row r="9" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="66" t="s">
@@ -3486,20 +4034,20 @@
       <c r="G9" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="H9" s="138">
+      <c r="H9" s="76">
         <v>99</v>
       </c>
-      <c r="I9" s="139"/>
-      <c r="J9" s="140"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="78"/>
       <c r="K9" s="34"/>
       <c r="L9" s="63" t="s">
         <v>332</v>
       </c>
-      <c r="M9" s="134">
+      <c r="M9" s="101">
         <v>120</v>
       </c>
-      <c r="N9" s="135"/>
-      <c r="O9" s="136"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="103"/>
     </row>
     <row r="10" spans="2:17" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B10" s="66" t="s">
@@ -3520,22 +4068,22 @@
       <c r="G10" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="H10" s="143">
+      <c r="H10" s="84">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,6,0)</f>
         <v>31</v>
       </c>
-      <c r="I10" s="144"/>
-      <c r="J10" s="145"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
       <c r="K10" s="34"/>
       <c r="L10" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="M10" s="118">
+      <c r="M10" s="112">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,6,0)</f>
         <v>19</v>
       </c>
-      <c r="N10" s="118"/>
-      <c r="O10" s="119"/>
+      <c r="N10" s="112"/>
+      <c r="O10" s="113"/>
     </row>
     <row r="11" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="67" t="s">
@@ -3556,22 +4104,22 @@
       <c r="G11" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="H11" s="120">
+      <c r="H11" s="79">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,8,0)</f>
         <v>31</v>
       </c>
-      <c r="I11" s="121"/>
-      <c r="J11" s="122"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="81"/>
       <c r="K11" s="34"/>
       <c r="L11" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="M11" s="114">
+      <c r="M11" s="104">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,8,0)</f>
         <v>19</v>
       </c>
-      <c r="N11" s="114"/>
-      <c r="O11" s="115"/>
+      <c r="N11" s="104"/>
+      <c r="O11" s="105"/>
       <c r="P11" s="33"/>
     </row>
     <row r="12" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
@@ -3579,11 +4127,11 @@
         <f>IF(E12="초과","초과 분배 능력치","미분배 능력치")</f>
         <v>미분배 능력치</v>
       </c>
-      <c r="C12" s="137" t="str">
+      <c r="C12" s="75" t="str">
         <f>IF((E8+E9+E10+E11)&gt;(D4-1),(E8+E9+E10+E11)-(D4-1),"")</f>
         <v/>
       </c>
-      <c r="D12" s="137"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="50">
         <f>IF(E8+E9+E10+E11&gt;(D4-1),"초과",(D4-1)-E8-E9-E10-E11)</f>
         <v>0</v>
@@ -3628,28 +4176,28 @@
       <c r="G13" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="120" t="str">
+      <c r="H13" s="79" t="str">
         <f>IF(VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,7,0)&gt;0,VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,7,0),"근거리 유닛")</f>
         <v>근거리 유닛</v>
       </c>
-      <c r="I13" s="121"/>
-      <c r="J13" s="122"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="81"/>
       <c r="K13" s="34"/>
       <c r="L13" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="M13" s="114">
+      <c r="M13" s="104">
         <f>IF(VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,7,0)&gt;0,VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,7,0),"근거리 유닛")</f>
         <v>6</v>
       </c>
-      <c r="N13" s="114"/>
-      <c r="O13" s="115"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="105"/>
     </row>
     <row r="14" spans="2:17" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="154" t="s">
         <v>326</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="155"/>
       <c r="D14" s="41" t="s">
         <v>329</v>
       </c>
@@ -3658,50 +4206,50 @@
       <c r="G14" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="120">
+      <c r="H14" s="79">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,11,0)</f>
         <v>220</v>
       </c>
-      <c r="I14" s="121"/>
-      <c r="J14" s="122"/>
+      <c r="I14" s="80"/>
+      <c r="J14" s="81"/>
       <c r="K14" s="34"/>
       <c r="L14" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="114">
+      <c r="M14" s="104">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,11,0)</f>
         <v>55</v>
       </c>
-      <c r="N14" s="114"/>
-      <c r="O14" s="115"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="105"/>
     </row>
     <row r="15" spans="2:17" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B15" s="105" t="s">
+      <c r="B15" s="114" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="106"/>
-      <c r="D15" s="107"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="34"/>
       <c r="F15" s="34"/>
       <c r="G15" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="120">
+      <c r="H15" s="79">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,12,0)</f>
         <v>11</v>
       </c>
-      <c r="I15" s="121"/>
-      <c r="J15" s="122"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="81"/>
       <c r="K15" s="34"/>
       <c r="L15" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="M15" s="114">
+      <c r="M15" s="104">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,12,0)</f>
         <v>10</v>
       </c>
-      <c r="N15" s="114"/>
-      <c r="O15" s="115"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="105"/>
     </row>
     <row r="16" spans="2:17" ht="26.25" x14ac:dyDescent="0.3">
       <c r="B16" s="35" t="str">
@@ -3719,52 +4267,52 @@
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
       <c r="G16" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="120">
+        <v>343</v>
+      </c>
+      <c r="H16" s="79">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,13,0)</f>
         <v>8</v>
       </c>
-      <c r="I16" s="121"/>
-      <c r="J16" s="122"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="81"/>
       <c r="K16" s="34"/>
       <c r="L16" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="M16" s="114">
+      <c r="M16" s="104">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,13,0)</f>
         <v>3</v>
       </c>
-      <c r="N16" s="114"/>
-      <c r="O16" s="115"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="105"/>
     </row>
     <row r="17" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B17" s="108" t="s">
+      <c r="B17" s="117" t="s">
         <v>312</v>
       </c>
-      <c r="C17" s="109"/>
-      <c r="D17" s="110"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="119"/>
       <c r="E17" s="34"/>
       <c r="F17" s="34"/>
       <c r="G17" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="120">
+      <c r="H17" s="79">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,14,0)</f>
         <v>1</v>
       </c>
-      <c r="I17" s="121"/>
-      <c r="J17" s="122"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="81"/>
       <c r="K17" s="34"/>
       <c r="L17" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="114">
+      <c r="M17" s="104">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,14,0)</f>
         <v>3</v>
       </c>
-      <c r="N17" s="114"/>
-      <c r="O17" s="115"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="105"/>
     </row>
     <row r="18" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="38" t="str">
@@ -3784,22 +4332,22 @@
       <c r="G18" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="111" t="str">
+      <c r="H18" s="120" t="str">
         <f>VLOOKUP(H6&amp;H7&amp;H8,'유닛 능력치 테이블'!$B$2:$P$178,15,0)</f>
         <v>3500 금 / 2 수정</v>
       </c>
-      <c r="I18" s="112"/>
-      <c r="J18" s="113"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="122"/>
       <c r="K18" s="34"/>
       <c r="L18" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="M18" s="116" t="str">
+      <c r="M18" s="123" t="str">
         <f>VLOOKUP(M6&amp;M7&amp;M8,'유닛 능력치 테이블'!$B$2:$P$178,15,0)</f>
         <v>850 금</v>
       </c>
-      <c r="N18" s="116"/>
-      <c r="O18" s="117"/>
+      <c r="N18" s="123"/>
+      <c r="O18" s="124"/>
     </row>
     <row r="19" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
       <c r="E19" s="34"/>
@@ -3815,44 +4363,44 @@
       <c r="O19" s="34"/>
     </row>
     <row r="20" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="127" t="s">
         <v>338</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
+      <c r="C20" s="127"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="127"/>
     </row>
     <row r="21" spans="2:15" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="127" t="s">
         <v>339</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
+      <c r="C21" s="127"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
       <c r="F21" s="43"/>
-      <c r="G21" s="81" t="s">
+      <c r="G21" s="132" t="s">
+        <v>341</v>
+      </c>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="128" t="s">
         <v>342</v>
       </c>
-      <c r="H21" s="82"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="77" t="s">
-        <v>341</v>
-      </c>
-      <c r="K21" s="78"/>
+      <c r="K21" s="129"/>
     </row>
     <row r="22" spans="2:15" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="127" t="s">
         <v>340</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
       <c r="F22" s="43"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="80"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="135"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="130"/>
+      <c r="K22" s="131"/>
     </row>
     <row r="23" spans="2:15" ht="20.25" x14ac:dyDescent="0.3">
       <c r="H23" s="33"/>
@@ -3989,36 +4537,6 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="M5:O5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="M18:O18"/>
     <mergeCell ref="G2:O2"/>
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="B20:E20"/>
@@ -4035,6 +4553,36 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="M5:O5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C12">
@@ -4190,7 +4738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P178"/>
   <sheetViews>
@@ -13295,11 +13843,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
+    <sheetView zoomScale="90" workbookViewId="0">
       <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
@@ -13316,15 +13864,15 @@
       <c r="B3" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="C3" s="155" t="s">
+      <c r="C3" s="156" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="157"/>
+      <c r="D3" s="157"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="157"/>
+      <c r="G3" s="157"/>
+      <c r="H3" s="157"/>
+      <c r="I3" s="158"/>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="20" t="s">
@@ -13351,18 +13899,18 @@
       <c r="I4" s="17">
         <v>7</v>
       </c>
-      <c r="O4" s="158" t="s">
+      <c r="O4" s="159" t="s">
         <v>299</v>
       </c>
-      <c r="P4" s="159"/>
-      <c r="Q4" s="159"/>
-      <c r="R4" s="159"/>
-      <c r="S4" s="159" t="s">
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160"/>
+      <c r="R4" s="160"/>
+      <c r="S4" s="160" t="s">
         <v>298</v>
       </c>
-      <c r="T4" s="159"/>
-      <c r="U4" s="159"/>
-      <c r="V4" s="160"/>
+      <c r="T4" s="160"/>
+      <c r="U4" s="160"/>
+      <c r="V4" s="161"/>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B5" s="13">
@@ -13389,7 +13937,7 @@
       <c r="I5" s="9">
         <v>0.1</v>
       </c>
-      <c r="J5" s="161"/>
+      <c r="J5" s="74"/>
       <c r="M5" s="29" t="s">
         <v>0</v>
       </c>
@@ -13446,7 +13994,7 @@
       <c r="I6" s="5">
         <v>0.15</v>
       </c>
-      <c r="J6" s="161"/>
+      <c r="J6" s="74"/>
       <c r="M6" s="27" t="s">
         <v>50</v>
       </c>
@@ -13503,7 +14051,7 @@
       <c r="I7" s="5">
         <v>0.19</v>
       </c>
-      <c r="J7" s="161"/>
+      <c r="J7" s="74"/>
       <c r="M7" s="27" t="s">
         <v>51</v>
       </c>
@@ -13560,7 +14108,7 @@
       <c r="I8" s="5">
         <v>0.24</v>
       </c>
-      <c r="J8" s="161"/>
+      <c r="J8" s="74"/>
       <c r="M8" s="27" t="s">
         <v>52</v>
       </c>
@@ -13617,7 +14165,7 @@
       <c r="I9" s="5">
         <v>0.28999999999999998</v>
       </c>
-      <c r="J9" s="161"/>
+      <c r="J9" s="74"/>
       <c r="M9" s="27" t="s">
         <v>53</v>
       </c>
@@ -13674,7 +14222,7 @@
       <c r="I10" s="5">
         <v>0.33</v>
       </c>
-      <c r="J10" s="161"/>
+      <c r="J10" s="74"/>
       <c r="M10" s="27" t="s">
         <v>54</v>
       </c>
@@ -13731,7 +14279,7 @@
       <c r="I11" s="5">
         <v>0.38</v>
       </c>
-      <c r="J11" s="161"/>
+      <c r="J11" s="74"/>
       <c r="M11" s="27" t="s">
         <v>55</v>
       </c>
@@ -13788,7 +14336,7 @@
       <c r="I12" s="5">
         <v>0.43</v>
       </c>
-      <c r="J12" s="161"/>
+      <c r="J12" s="74"/>
       <c r="M12" s="27" t="s">
         <v>56</v>
       </c>
@@ -13845,7 +14393,7 @@
       <c r="I13" s="5">
         <v>0.47</v>
       </c>
-      <c r="J13" s="161"/>
+      <c r="J13" s="74"/>
       <c r="M13" s="28" t="s">
         <v>57</v>
       </c>
@@ -13902,7 +14450,7 @@
       <c r="I14" s="5">
         <v>0.52</v>
       </c>
-      <c r="J14" s="161"/>
+      <c r="J14" s="74"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" s="14">
@@ -13929,7 +14477,7 @@
       <c r="I15" s="5">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J15" s="161"/>
+      <c r="J15" s="74"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
@@ -13956,7 +14504,7 @@
       <c r="I16" s="5">
         <v>0.61</v>
       </c>
-      <c r="J16" s="161"/>
+      <c r="J16" s="74"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17" s="14">
@@ -13983,7 +14531,7 @@
       <c r="I17" s="5">
         <v>0.66</v>
       </c>
-      <c r="J17" s="161"/>
+      <c r="J17" s="74"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18" s="14">
@@ -14010,7 +14558,7 @@
       <c r="I18" s="5">
         <v>0.71</v>
       </c>
-      <c r="J18" s="161"/>
+      <c r="J18" s="74"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19" s="14">
@@ -14037,7 +14585,7 @@
       <c r="I19" s="5">
         <v>0.75</v>
       </c>
-      <c r="J19" s="161"/>
+      <c r="J19" s="74"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20" s="14">
@@ -14064,7 +14612,7 @@
       <c r="I20" s="5">
         <v>0.8</v>
       </c>
-      <c r="J20" s="161"/>
+      <c r="J20" s="74"/>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21" s="14">
@@ -14091,7 +14639,7 @@
       <c r="I21" s="5">
         <v>0.85</v>
       </c>
-      <c r="J21" s="161"/>
+      <c r="J21" s="74"/>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22" s="14">
@@ -14118,7 +14666,7 @@
       <c r="I22" s="5">
         <v>0.89</v>
       </c>
-      <c r="J22" s="161"/>
+      <c r="J22" s="74"/>
     </row>
     <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23" s="14">
@@ -14145,7 +14693,7 @@
       <c r="I23" s="5">
         <v>0.94</v>
       </c>
-      <c r="J23" s="161"/>
+      <c r="J23" s="74"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24" s="14">
@@ -14172,7 +14720,7 @@
       <c r="I24" s="5">
         <v>0.99</v>
       </c>
-      <c r="J24" s="161"/>
+      <c r="J24" s="74"/>
     </row>
     <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25" s="14">
@@ -14199,7 +14747,7 @@
       <c r="I25" s="5">
         <v>1.03</v>
       </c>
-      <c r="J25" s="161"/>
+      <c r="J25" s="74"/>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26" s="14">
@@ -14226,7 +14774,7 @@
       <c r="I26" s="5">
         <v>1.08</v>
       </c>
-      <c r="J26" s="161"/>
+      <c r="J26" s="74"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27" s="14">
@@ -14253,7 +14801,7 @@
       <c r="I27" s="5">
         <v>1.1299999999999999</v>
       </c>
-      <c r="J27" s="161"/>
+      <c r="J27" s="74"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28" s="14">
@@ -14280,7 +14828,7 @@
       <c r="I28" s="5">
         <v>1.17</v>
       </c>
-      <c r="J28" s="161"/>
+      <c r="J28" s="74"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29" s="14">
@@ -14307,7 +14855,7 @@
       <c r="I29" s="5">
         <v>1.22</v>
       </c>
-      <c r="J29" s="161"/>
+      <c r="J29" s="74"/>
     </row>
     <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30" s="14">
@@ -14334,7 +14882,7 @@
       <c r="I30" s="5">
         <v>1.27</v>
       </c>
-      <c r="J30" s="161"/>
+      <c r="J30" s="74"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31" s="14">
@@ -14361,7 +14909,7 @@
       <c r="I31" s="5">
         <v>1.31</v>
       </c>
-      <c r="J31" s="161"/>
+      <c r="J31" s="74"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32" s="14">
@@ -14388,7 +14936,7 @@
       <c r="I32" s="5">
         <v>1.36</v>
       </c>
-      <c r="J32" s="161"/>
+      <c r="J32" s="74"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33" s="14">
@@ -14415,7 +14963,7 @@
       <c r="I33" s="5">
         <v>1.41</v>
       </c>
-      <c r="J33" s="161"/>
+      <c r="J33" s="74"/>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34" s="14">
@@ -14442,7 +14990,7 @@
       <c r="I34" s="5">
         <v>1.45</v>
       </c>
-      <c r="J34" s="161"/>
+      <c r="J34" s="74"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35" s="14">
@@ -14469,7 +15017,7 @@
       <c r="I35" s="5">
         <v>1.5</v>
       </c>
-      <c r="J35" s="161"/>
+      <c r="J35" s="74"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36" s="14">
@@ -14496,7 +15044,7 @@
       <c r="I36" s="5">
         <v>1.55</v>
       </c>
-      <c r="J36" s="161"/>
+      <c r="J36" s="74"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B37" s="14">
@@ -14523,7 +15071,7 @@
       <c r="I37" s="5">
         <v>1.59</v>
       </c>
-      <c r="J37" s="161"/>
+      <c r="J37" s="74"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B38" s="14">
@@ -14550,7 +15098,7 @@
       <c r="I38" s="5">
         <v>1.64</v>
       </c>
-      <c r="J38" s="161"/>
+      <c r="J38" s="74"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B39" s="14">
@@ -14577,7 +15125,7 @@
       <c r="I39" s="5">
         <v>1.69</v>
       </c>
-      <c r="J39" s="161"/>
+      <c r="J39" s="74"/>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B40" s="14">
@@ -14604,7 +15152,7 @@
       <c r="I40" s="5">
         <v>1.73</v>
       </c>
-      <c r="J40" s="161"/>
+      <c r="J40" s="74"/>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B41" s="14">
@@ -14631,7 +15179,7 @@
       <c r="I41" s="5">
         <v>1.78</v>
       </c>
-      <c r="J41" s="161"/>
+      <c r="J41" s="74"/>
     </row>
     <row r="42" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B42" s="14">
@@ -14658,7 +15206,7 @@
       <c r="I42" s="5">
         <v>1.83</v>
       </c>
-      <c r="J42" s="161"/>
+      <c r="J42" s="74"/>
     </row>
     <row r="43" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B43" s="14">
@@ -14685,7 +15233,7 @@
       <c r="I43" s="5">
         <v>1.87</v>
       </c>
-      <c r="J43" s="161"/>
+      <c r="J43" s="74"/>
     </row>
     <row r="44" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B44" s="14">
@@ -14712,7 +15260,7 @@
       <c r="I44" s="5">
         <v>1.92</v>
       </c>
-      <c r="J44" s="161"/>
+      <c r="J44" s="74"/>
     </row>
     <row r="45" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B45" s="14">
@@ -14739,7 +15287,7 @@
       <c r="I45" s="5">
         <v>1.97</v>
       </c>
-      <c r="J45" s="161"/>
+      <c r="J45" s="74"/>
     </row>
     <row r="46" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B46" s="14">
@@ -14766,7 +15314,7 @@
       <c r="I46" s="5">
         <v>2.0099999999999998</v>
       </c>
-      <c r="J46" s="161"/>
+      <c r="J46" s="74"/>
     </row>
     <row r="47" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B47" s="15">
@@ -14793,7 +15341,7 @@
       <c r="I47" s="7">
         <v>2.06</v>
       </c>
-      <c r="J47" s="161"/>
+      <c r="J47" s="74"/>
     </row>
   </sheetData>
   <mergeCells count="3">
